--- a/Documentation/ProcessedDatasetNew.xlsx
+++ b/Documentation/ProcessedDatasetNew.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/kk05088_st_habib_edu_pk/Documents/DSA/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\project-oak\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="8_{0DDFC1D1-976C-4FEA-B510-1E947D0AF8A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{B268D649-6A41-4A53-A1A8-E0F1F3DCC970}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60FABC-55FE-400A-8D9A-73C7A3098334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{5708F95C-B29E-4D4B-BEA3-D05B57C757EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>points</t>
   </si>
@@ -956,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89940F3-CAEE-4CF8-BB39-909F6232D057}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3719,9 @@
       <c r="C139" s="1">
         <v>15</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1">
+        <v>19</v>
+      </c>
       <c r="E139" s="1">
         <v>6</v>
       </c>
@@ -3737,7 +3739,9 @@
       <c r="C140" s="1">
         <v>11</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1">
+        <v>15.4</v>
+      </c>
       <c r="E140" s="1">
         <v>5</v>
       </c>
@@ -3755,7 +3759,9 @@
       <c r="C141" s="1">
         <v>11</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1">
+        <v>14.4</v>
+      </c>
       <c r="E141" s="1">
         <v>4</v>
       </c>
@@ -3773,7 +3779,9 @@
       <c r="C142" s="1">
         <v>16</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1">
+        <v>13.6</v>
+      </c>
       <c r="E142" s="1">
         <v>3</v>
       </c>
@@ -3791,7 +3799,9 @@
       <c r="C143" s="1">
         <v>11</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1">
+        <v>12.4</v>
+      </c>
       <c r="E143" s="1">
         <v>2</v>
       </c>
@@ -3806,8 +3816,12 @@
       <c r="B144" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D144" s="1">
+        <v>8.4</v>
+      </c>
       <c r="E144" s="1">
         <v>1</v>
       </c>
@@ -3823,8 +3837,12 @@
       <c r="C145" s="1">
         <v>11.4</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="D145" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E145" s="1">
+        <v>7</v>
+      </c>
       <c r="F145" s="5">
         <v>0.3</v>
       </c>
@@ -3839,8 +3857,12 @@
       <c r="C146" s="1">
         <v>10</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="D146" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="E146" s="1">
+        <v>6</v>
+      </c>
       <c r="F146" s="5">
         <v>0.3</v>
       </c>
@@ -3855,8 +3877,12 @@
       <c r="C147" s="1">
         <v>11</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="D147" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="E147" s="1">
+        <v>5</v>
+      </c>
       <c r="F147" s="5">
         <v>0.3</v>
       </c>
@@ -3871,8 +3897,12 @@
       <c r="C148" s="1">
         <v>10</v>
       </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="D148" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4</v>
+      </c>
       <c r="F148" s="5">
         <v>0.3</v>
       </c>
@@ -3887,8 +3917,12 @@
       <c r="C149" s="1">
         <v>11</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="D149" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3</v>
+      </c>
       <c r="F149" s="5">
         <v>0.3</v>
       </c>
@@ -3903,8 +3937,12 @@
       <c r="C150" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="D150" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2</v>
+      </c>
       <c r="F150" s="5">
         <v>0.3</v>
       </c>
@@ -3919,8 +3957,12 @@
       <c r="C151" s="1">
         <v>11</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="D151" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
       <c r="F151" s="5">
         <v>0.3</v>
       </c>
@@ -3935,8 +3977,12 @@
       <c r="C152" s="1">
         <v>13</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="D152" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E152" s="1">
+        <v>4</v>
+      </c>
       <c r="F152" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -3946,13 +3992,17 @@
         <v>30</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="1">
-        <v>13</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="D153" s="1">
+        <v>17</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3</v>
+      </c>
       <c r="F153" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -3962,13 +4012,17 @@
         <v>30</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D154" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2</v>
+      </c>
       <c r="F154" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -3978,45 +4032,57 @@
         <v>30</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="1">
-        <v>12</v>
-      </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D155" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
       <c r="F155" s="5">
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C156" s="1">
-        <v>12</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D156" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="E156" s="1">
+        <v>6</v>
+      </c>
       <c r="F156" s="5">
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C157" s="1">
-        <v>11</v>
-      </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="D157" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="E157" s="1">
+        <v>5</v>
+      </c>
       <c r="F157" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4026,13 +4092,17 @@
         <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="D158" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>4</v>
+      </c>
       <c r="F158" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4042,13 +4112,17 @@
         <v>31</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C159" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="D159" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3</v>
+      </c>
       <c r="F159" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4058,13 +4132,17 @@
         <v>31</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C160" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="D160" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2</v>
+      </c>
       <c r="F160" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4074,45 +4152,57 @@
         <v>31</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C161" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D161" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
       <c r="F161" s="5">
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C162" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="E162" s="1">
+        <v>5</v>
+      </c>
       <c r="F162" s="5">
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C163" s="1">
-        <v>3</v>
-      </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+        <v>7.3</v>
+      </c>
+      <c r="D163" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E163" s="1">
+        <v>4</v>
+      </c>
       <c r="F163" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4122,13 +4212,17 @@
         <v>32</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C164" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="E164" s="1">
+        <v>3</v>
+      </c>
       <c r="F164" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4138,13 +4232,17 @@
         <v>32</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C165" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2</v>
+      </c>
       <c r="F165" s="5">
         <v>0.30208333333333331</v>
       </c>
@@ -4154,45 +4252,57 @@
         <v>32</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C166" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D166" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
       <c r="F166" s="5">
-        <v>0.30208333333333331</v>
+        <v>0.30416666666666664</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C167" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D167" s="1">
+        <v>12</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4</v>
+      </c>
       <c r="F167" s="5">
-        <v>0.30208333333333331</v>
+        <v>0.30416666666666664</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C168" s="1">
-        <v>8</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D168" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="E168" s="1">
+        <v>3</v>
+      </c>
       <c r="F168" s="5">
         <v>0.30416666666666664</v>
       </c>
@@ -4202,13 +4312,17 @@
         <v>33</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C169" s="1">
-        <v>11</v>
-      </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E169" s="1">
+        <v>2</v>
+      </c>
       <c r="F169" s="5">
         <v>0.30416666666666664</v>
       </c>
@@ -4218,78 +4332,58 @@
         <v>33</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C170" s="1">
-        <v>5</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
       <c r="F170" s="5">
         <v>0.30416666666666664</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C171" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="D171" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
       <c r="F171" s="5">
         <v>0.30416666666666664</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C172" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
       <c r="F172" s="5">
-        <v>0.30416666666666664</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>34</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C173" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="5">
-        <v>0.30416666666666664</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>34</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="5">
         <v>0.30416666666666664</v>
       </c>
     </row>
